--- a/171/REFINE/AXON_171_paw_critical_alarm.xlsx
+++ b/171/REFINE/AXON_171_paw_critical_alarm.xlsx
@@ -15,129 +15,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="85">
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>TECHNICAL_NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="85">
+  <si>
+    <t>ATTRIBUTE NAME</t>
+  </si>
+  <si>
+    <t>TECHNICAL NAME</t>
   </si>
   <si>
     <t>DEFINITION</t>
   </si>
   <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
     <t>BUSINESS LOGIC</t>
   </si>
   <si>
-    <t>ACK_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>ACK_TIMESTAMP_UTC</t>
-  </si>
-  <si>
-    <t>ALARM_ID</t>
-  </si>
-  <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>BATCH</t>
-  </si>
-  <si>
-    <t>CYCLE_ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>FLEXFIELD1</t>
-  </si>
-  <si>
-    <t>IN_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>IN_TIMESTAMP_UTC</t>
-  </si>
-  <si>
-    <t>NODENAME</t>
-  </si>
-  <si>
-    <t>OUT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>OUT_TIMESTAMP_UTC</t>
-  </si>
-  <si>
-    <t>PROCESS_CELL</t>
-  </si>
-  <si>
-    <t>R_DEL_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_DEL_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_FCLTY_CD</t>
-  </si>
-  <si>
-    <t>R_INS_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_INS_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_RCRD_STS_CD</t>
-  </si>
-  <si>
-    <t>R_UPD_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_UPD_TMSTMP</t>
-  </si>
-  <si>
-    <t>SEVERITY</t>
-  </si>
-  <si>
-    <t>SIGN_COMMENT</t>
-  </si>
-  <si>
-    <t>SIGN_MEANING</t>
-  </si>
-  <si>
-    <t>SIGN_MEANING_LOCAL</t>
-  </si>
-  <si>
-    <t>SIGN_NODENAME</t>
-  </si>
-  <si>
-    <t>SIGN_USERFULLNAME</t>
-  </si>
-  <si>
-    <t>SIGN_USERNAME</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>TAGNAME</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>R_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_SRC_ID</t>
+    <t>ack_timestamp</t>
+  </si>
+  <si>
+    <t>ack_timestamp_utc</t>
+  </si>
+  <si>
+    <t>alarm_id</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>cycle_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>flexfield1</t>
+  </si>
+  <si>
+    <t>in_timestamp</t>
+  </si>
+  <si>
+    <t>in_timestamp_utc</t>
+  </si>
+  <si>
+    <t>nodename</t>
+  </si>
+  <si>
+    <t>out_timestamp</t>
+  </si>
+  <si>
+    <t>out_timestamp_utc</t>
+  </si>
+  <si>
+    <t>process_cell</t>
+  </si>
+  <si>
+    <t>r_del_load_id</t>
+  </si>
+  <si>
+    <t>r_del_tmstmp</t>
+  </si>
+  <si>
+    <t>r_fclty_cd</t>
+  </si>
+  <si>
+    <t>r_ins_load_id</t>
+  </si>
+  <si>
+    <t>r_ins_tmstmp</t>
+  </si>
+  <si>
+    <t>r_rcrd_sts_cd</t>
+  </si>
+  <si>
+    <t>r_upd_load_id</t>
+  </si>
+  <si>
+    <t>r_upd_tmstmp</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>sign_comment</t>
+  </si>
+  <si>
+    <t>sign_meaning</t>
+  </si>
+  <si>
+    <t>sign_meaning_local</t>
+  </si>
+  <si>
+    <t>sign_nodename</t>
+  </si>
+  <si>
+    <t>sign_userfullname</t>
+  </si>
+  <si>
+    <t>sign_username</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>tagname</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>r_load_id</t>
+  </si>
+  <si>
+    <t>r_src_id</t>
+  </si>
+  <si>
+    <t>COLUMN ack_timestamp OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN ack_timestamp_utc OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN alarm_id OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN application OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN area OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN batch OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN cycle_id OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN description OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN flexfield1 OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN in_timestamp OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN in_timestamp_utc OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN nodename OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN out_timestamp OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN out_timestamp_utc OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN process_cell OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_load_id OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_tmstmp OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_fclty_cd OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_load_id OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_tmstmp OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_rcrd_sts_cd OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_load_id OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_tmstmp OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN severity OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN sign_comment OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN sign_meaning OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN sign_meaning_local OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN sign_nodename OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN sign_userfullname OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN sign_username OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN site OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN tagname OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN unit OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN value OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_load_id OF TABLE PAW_CRITICAL_ALARM</t>
+  </si>
+  <si>
+    <t>COLUMN r_src_id OF TABLE PAW_CRITICAL_ALARM</t>
   </si>
   <si>
     <t>TIMESTAMP</t>
@@ -147,114 +255,6 @@
   </si>
   <si>
     <t>BIGINT</t>
-  </si>
-  <si>
-    <t>COLUMN ACK_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN ACK_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN ALARM_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN APPLICATION OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN AREA OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN BATCH OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_ID OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN DESCRIPTION OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN FLEXFIELD1 OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN IN_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN IN_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN NODENAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN OUT_TIMESTAMP OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN OUT_TIMESTAMP_UTC OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN PROCESS_CELL OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the physical deletion of the record in the source, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the physical deletion of the record in the source in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. SAP Facility code identifying the source site of the record. It is populated by the AWS Glue Job based on the content of source_system_cnf manual table.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the first insert, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the first insert of the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Record status code (A = active, D = deleted).</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last update transaction on the record, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the last update transaction on the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>COLUMN SEVERITY OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_COMMENT OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING_LOCAL OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_NODENAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERFULLNAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERNAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN SITE OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN TAGNAME OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN UNIT OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>COLUMN VALUE OF TABLE PAW_CRITICAL_ALARM</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last Job run, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. This is a Source system identifier in CAVEAU Architecture.</t>
   </si>
   <si>
     <t>SOURCE(S)</t>
@@ -655,13 +655,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -669,13 +669,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -683,13 +683,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -697,13 +697,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -711,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -739,13 +739,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -753,13 +753,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -767,13 +767,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -781,13 +781,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -795,13 +795,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -809,13 +809,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -823,13 +823,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -837,13 +837,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -851,13 +851,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -879,13 +879,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -893,13 +893,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -907,13 +907,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -921,13 +921,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -935,13 +935,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -949,13 +949,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -963,13 +963,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -977,13 +977,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -991,13 +991,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1005,13 +1005,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1019,13 +1019,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1033,13 +1033,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1061,13 +1061,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1075,13 +1075,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1089,13 +1089,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1103,13 +1103,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1117,13 +1117,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1131,10 +1131,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>78</v>
@@ -1145,10 +1145,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>79</v>
@@ -1161,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -1402,12 +1402,12 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -1416,12 +1416,12 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -1430,12 +1430,12 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -1444,12 +1444,12 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -1458,12 +1458,12 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -1472,12 +1472,12 @@
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -1486,12 +1486,12 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
@@ -1500,12 +1500,12 @@
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -1514,12 +1514,12 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>83</v>
@@ -1528,21 +1528,161 @@
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
